--- a/assignment.xlsx
+++ b/assignment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11715"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>时间</t>
   </si>
@@ -36,14 +36,23 @@
   <si>
     <t>高资俯卧撑</t>
   </si>
+  <si>
+    <t>公司加班</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>打篮球3小时</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -57,22 +66,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,21 +95,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,15 +110,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,18 +155,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,25 +179,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,15 +194,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,91 +218,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,80 +414,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -403,11 +424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,6 +444,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,6 +478,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -447,6 +509,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,41 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,16 +556,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,119 +574,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +698,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -988,7 +1039,7 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1038,104 +1089,132 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>44536</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>700</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>28</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>60</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>44537</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>750</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>30</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>75</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>44538</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>750</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>75</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>44539</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>44540</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="7">
+        <v>750</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7">
+        <v>75</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>44541</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="7">
+        <v>750</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7">
+        <v>75</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>44542</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
@@ -2078,13 +2157,13 @@
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="4"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="4"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="4"/>
+      <c r="C106" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F103">
@@ -2101,8 +2180,10 @@
       </etc:autoFilterAnalysis>
     </extLst>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">

--- a/assignment.xlsx
+++ b/assignment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="21000" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>时间</t>
   </si>
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,15 +66,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,45 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,7 +102,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,7 +132,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,9 +164,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,23 +208,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,7 +224,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +290,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,31 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,31 +332,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,25 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,61 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,30 +429,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,23 +462,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +491,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,137 +550,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,13 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1039,7 +1027,7 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1109,110 +1097,110 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>44537</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>750</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>75</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>44538</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>750</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>36</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>75</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>44539</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>44540</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>750</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>38</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>75</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>44541</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>750</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>41</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>75</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>44542</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1220,31 +1208,61 @@
       <c r="A10" s="2">
         <v>44543</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="3">
+        <v>750</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>75</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>44544</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="3">
+        <v>750</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>75</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>44545</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="3">
+        <v>750</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
@@ -2157,13 +2175,13 @@
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="9"/>
+      <c r="C104" s="7"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="9"/>
+      <c r="C105" s="7"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="9"/>
+      <c r="C106" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F103">
